--- a/Ethan/ScrapeBets.xlsx
+++ b/Ethan/ScrapeBets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Upwork\Ethan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD31A0-846F-47D3-8E82-F13BFDB187A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFF2FF-F31F-4792-99AE-019A02FBDB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1140" windowWidth="27015" windowHeight="9615" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bets" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
   <si>
     <t>Wait</t>
   </si>
@@ -65,6 +65,36 @@
   </si>
   <si>
     <t>Ballarat</t>
+  </si>
+  <si>
+    <t>Scone</t>
+  </si>
+  <si>
+    <t>Dalby</t>
+  </si>
+  <si>
+    <t>Queanbeyan</t>
+  </si>
+  <si>
+    <t>Ladbrokes</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Randwick-kensington</t>
+  </si>
+  <si>
+    <t>Sandown</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Murray-bridge</t>
+  </si>
+  <si>
+    <t>Taupo</t>
   </si>
 </sst>
 </file>
@@ -458,17 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12CD589-920F-400B-BFEF-F5FAFACF2E66}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -479,9 +510,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -518,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="11">
-        <v>44431.891319444447</v>
+        <v>44432.418275462966</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
@@ -536,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="11">
-        <v>44431.891469907408</v>
+        <v>44432.418437499997</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
@@ -559,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="11">
-        <v>44431.891608796293</v>
+        <v>44432.418587962966</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -588,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="11">
-        <v>44431.891770833332</v>
+        <v>44432.418749999997</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -605,16 +634,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="11">
-        <v>44431.891921296294</v>
+        <v>44432.418888888889</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -640,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -648,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="11">
-        <v>44431.892060185186</v>
+        <v>44432.419050925928</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -666,7 +695,1995 @@
         <v>6</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44432.419189814813</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44432.419351851851</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44432.419849537036</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44432.42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44432.42015046296</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44432.420312499999</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44432.42046296296</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44432.420624999999</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44432.420775462961</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44432.420925925922</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44432.421064814815</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44432.421215277776</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44432.421365740738</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44432.421539351853</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>9</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44432.421689814815</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9">
+        <v>5</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44432.421863425923</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9">
+        <v>6</v>
+      </c>
+      <c r="E24" s="9">
+        <v>6</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44432.422013888892</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7">
+        <v>6</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44432.422164351854</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9">
+        <v>7</v>
+      </c>
+      <c r="F26" s="9">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7">
+        <v>6</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44432.422326388885</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44432.422476851854</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>6</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44432.422627314816</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9">
+        <v>6</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44432.422789351855</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9">
+        <v>7</v>
+      </c>
+      <c r="G30" s="7">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44432.422939814816</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9">
+        <v>4</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>4</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44432.423090277778</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5</v>
+      </c>
+      <c r="E32" s="9">
+        <v>8</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3</v>
+      </c>
+      <c r="H32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="11">
+        <v>44432.42324074074</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="9">
+        <v>6</v>
+      </c>
+      <c r="E33" s="9">
+        <v>5</v>
+      </c>
+      <c r="F33" s="9">
+        <v>6</v>
+      </c>
+      <c r="G33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11">
+        <v>44432.423391203702</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="9">
+        <v>7</v>
+      </c>
+      <c r="E34" s="9">
+        <v>8</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="11">
+        <v>44432.42355324074</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9">
+        <v>8</v>
+      </c>
+      <c r="E35" s="9">
+        <v>5</v>
+      </c>
+      <c r="F35" s="9">
+        <v>9</v>
+      </c>
+      <c r="G35" s="7">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="11">
+        <v>44432.905972222223</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="11">
+        <v>44432.906122685185</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="11">
+        <v>44432.906261574077</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3</v>
+      </c>
+      <c r="E38" s="9">
+        <v>8</v>
+      </c>
+      <c r="F38" s="9">
+        <v>7</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11">
+        <v>44432.906412037039</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="9">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="11">
+        <v>44432.906550925924</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="9">
+        <v>5</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>9</v>
+      </c>
+      <c r="G40" s="7">
+        <v>2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="11">
+        <v>44432.906701388885</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="9">
+        <v>6</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>3</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="11">
+        <v>44432.906840277778</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="9">
+        <v>7</v>
+      </c>
+      <c r="E42" s="9">
+        <v>5</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7">
+        <v>4</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="11">
+        <v>44432.906990740739</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="9">
+        <v>8</v>
+      </c>
+      <c r="E43" s="9">
+        <v>3</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>4</v>
+      </c>
+      <c r="H43" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="11">
+        <v>44432.907141203701</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="9">
+        <v>9</v>
+      </c>
+      <c r="E44" s="9">
+        <v>8</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>5</v>
+      </c>
+      <c r="H44" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="11">
+        <v>44432.907280092593</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>5</v>
+      </c>
+      <c r="F45" s="9">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7">
+        <v>9</v>
+      </c>
+      <c r="H45" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="11">
+        <v>44432.907430555555</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>5</v>
+      </c>
+      <c r="F46" s="9">
+        <v>7</v>
+      </c>
+      <c r="G46" s="7">
+        <v>9</v>
+      </c>
+      <c r="H46" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="11">
+        <v>44432.907569444447</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
+      </c>
+      <c r="E47" s="9">
+        <v>9</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7">
+        <v>4</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="11">
+        <v>44432.907719907409</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4</v>
+      </c>
+      <c r="E48" s="9">
+        <v>3</v>
+      </c>
+      <c r="F48" s="9">
+        <v>4</v>
+      </c>
+      <c r="G48" s="7">
+        <v>5</v>
+      </c>
+      <c r="H48" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="11">
+        <v>44432.907870370371</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="9">
+        <v>5</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9">
+        <v>4</v>
+      </c>
+      <c r="G49" s="7">
+        <v>6</v>
+      </c>
+      <c r="H49" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="11">
+        <v>44432.908009259256</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="9">
+        <v>6</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
+        <v>6</v>
+      </c>
+      <c r="G50" s="7">
+        <v>4</v>
+      </c>
+      <c r="H50" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="11">
+        <v>44432.908159722225</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9">
+        <v>7</v>
+      </c>
+      <c r="E51" s="9">
+        <v>6</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>7</v>
+      </c>
+      <c r="H51" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="11">
+        <v>44432.908310185187</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="9">
+        <v>8</v>
+      </c>
+      <c r="E52" s="9">
+        <v>7</v>
+      </c>
+      <c r="F52" s="9">
+        <v>8</v>
+      </c>
+      <c r="G52" s="7">
+        <v>11</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="11">
+        <v>44432.908449074072</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
+        <v>13</v>
+      </c>
+      <c r="G53" s="7">
+        <v>14</v>
+      </c>
+      <c r="H53" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="11">
+        <v>44432.908599537041</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
+      </c>
+      <c r="F54" s="9">
+        <v>13</v>
+      </c>
+      <c r="G54" s="7">
+        <v>14</v>
+      </c>
+      <c r="H54" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="11">
+        <v>44432.908750000002</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="9">
+        <v>3</v>
+      </c>
+      <c r="E55" s="9">
+        <v>8</v>
+      </c>
+      <c r="F55" s="9">
+        <v>5</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="11">
+        <v>44432.908888888887</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="9">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9">
+        <v>14</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2</v>
+      </c>
+      <c r="G56" s="7">
+        <v>7</v>
+      </c>
+      <c r="H56" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="11">
+        <v>44432.909039351849</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="9">
+        <v>5</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4</v>
+      </c>
+      <c r="F57" s="9">
+        <v>7</v>
+      </c>
+      <c r="G57" s="7">
+        <v>16</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="11">
+        <v>44432.909189814818</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="9">
+        <v>6</v>
+      </c>
+      <c r="E58" s="9">
+        <v>6</v>
+      </c>
+      <c r="F58" s="9">
+        <v>3</v>
+      </c>
+      <c r="G58" s="7">
+        <v>12</v>
+      </c>
+      <c r="H58" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="11">
+        <v>44432.909351851849</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="9">
+        <v>7</v>
+      </c>
+      <c r="E59" s="9">
+        <v>4</v>
+      </c>
+      <c r="F59" s="9">
+        <v>12</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="11">
+        <v>44432.909502314818</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="9">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9">
+        <v>10</v>
+      </c>
+      <c r="F60" s="9">
+        <v>5</v>
+      </c>
+      <c r="G60" s="7">
+        <v>13</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="11">
+        <v>44432.90965277778</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="9">
+        <v>9</v>
+      </c>
+      <c r="E61" s="9">
+        <v>10</v>
+      </c>
+      <c r="F61" s="9">
+        <v>7</v>
+      </c>
+      <c r="G61" s="7">
+        <v>14</v>
+      </c>
+      <c r="H61" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="11">
+        <v>44432.909803240742</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9">
+        <v>7</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7">
+        <v>3</v>
+      </c>
+      <c r="H62" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="11">
+        <v>44432.909953703704</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2</v>
+      </c>
+      <c r="E63" s="9">
+        <v>7</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7">
+        <v>3</v>
+      </c>
+      <c r="H63" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="11">
+        <v>44432.910092592596</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="9">
+        <v>3</v>
+      </c>
+      <c r="E64" s="9">
+        <v>2</v>
+      </c>
+      <c r="F64" s="9">
+        <v>4</v>
+      </c>
+      <c r="G64" s="7">
+        <v>9</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="11">
+        <v>44432.910277777781</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="9">
+        <v>4</v>
+      </c>
+      <c r="E65" s="9">
+        <v>5</v>
+      </c>
+      <c r="F65" s="9">
+        <v>6</v>
+      </c>
+      <c r="G65" s="7">
+        <v>2</v>
+      </c>
+      <c r="H65" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="11">
+        <v>44432.910428240742</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="9">
+        <v>5</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7">
+        <v>6</v>
+      </c>
+      <c r="H66" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="11">
+        <v>44432.910578703704</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="9">
+        <v>6</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>4</v>
+      </c>
+      <c r="G67" s="7">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="11">
+        <v>44432.910729166666</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="9">
+        <v>7</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>7</v>
+      </c>
+      <c r="G68" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="11">
+        <v>44432.910868055558</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="9">
+        <v>8</v>
+      </c>
+      <c r="E69" s="9">
+        <v>6</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7">
+        <v>7</v>
+      </c>
+      <c r="H69" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="11">
+        <v>44432.91101851852</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="9">
+        <v>9</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9">
+        <v>12</v>
+      </c>
+      <c r="G70" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="11">
+        <v>44432.911168981482</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
+        <v>3</v>
+      </c>
+      <c r="F71" s="9">
+        <v>12</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="11">
+        <v>44432.911319444444</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2</v>
+      </c>
+      <c r="E72" s="9">
+        <v>3</v>
+      </c>
+      <c r="F72" s="9">
+        <v>12</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="11">
+        <v>44432.911458333336</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="9">
+        <v>3</v>
+      </c>
+      <c r="E73" s="9">
+        <v>6</v>
+      </c>
+      <c r="F73" s="9">
+        <v>7</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="11">
+        <v>44432.911608796298</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="9">
+        <v>4</v>
+      </c>
+      <c r="E74" s="9">
+        <v>2</v>
+      </c>
+      <c r="F74" s="9">
+        <v>10</v>
+      </c>
+      <c r="G74" s="7">
+        <v>9</v>
+      </c>
+      <c r="H74" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="11">
+        <v>44432.911759259259</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="9">
+        <v>5</v>
+      </c>
+      <c r="E75" s="9">
+        <v>6</v>
+      </c>
+      <c r="F75" s="9">
+        <v>12</v>
+      </c>
+      <c r="G75" s="7">
+        <v>8</v>
+      </c>
+      <c r="H75" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="11">
+        <v>44432.911898148152</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="9">
+        <v>6</v>
+      </c>
+      <c r="E76" s="9">
+        <v>2</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>5</v>
+      </c>
+      <c r="H76" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="11">
+        <v>44432.912048611113</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="9">
+        <v>7</v>
+      </c>
+      <c r="E77" s="9">
+        <v>5</v>
+      </c>
+      <c r="F77" s="9">
+        <v>8</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="11">
+        <v>44432.912199074075</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="9">
+        <v>8</v>
+      </c>
+      <c r="E78" s="9">
+        <v>14</v>
+      </c>
+      <c r="F78" s="9">
+        <v>8</v>
+      </c>
+      <c r="G78" s="7">
+        <v>4</v>
+      </c>
+      <c r="H78" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="11">
+        <v>44432.91233796296</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="9">
+        <v>9</v>
+      </c>
+      <c r="E79" s="9">
+        <v>11</v>
+      </c>
+      <c r="F79" s="9">
+        <v>16</v>
+      </c>
+      <c r="G79" s="7">
+        <v>4</v>
+      </c>
+      <c r="H79" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="11">
+        <v>44432.912488425929</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="11">
+        <v>44432.912638888891</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="11">
+        <v>44432.912777777776</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="11">
+        <v>44432.912928240738</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="11">
+        <v>44432.91306712963</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="11">
+        <v>44432.913217592592</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="11">
+        <v>44432.913368055553</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="11">
+        <v>44432.913506944446</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="11">
+        <v>44432.913657407407</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="11">
+        <v>44432.913807870369</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="11">
+        <v>44432.913946759261</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="9">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Ethan/ScrapeBets.xlsx
+++ b/Ethan/ScrapeBets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Upwork\Ethan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFF2FF-F31F-4792-99AE-019A02FBDB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD98F86-060C-432B-8373-DF7813C12C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
+    <workbookView minimized="1" xWindow="30465" yWindow="1830" windowWidth="27015" windowHeight="9615" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bets" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="21">
   <si>
     <t>Wait</t>
   </si>
@@ -76,13 +76,7 @@
     <t>Queanbeyan</t>
   </si>
   <si>
-    <t>Ladbrokes</t>
-  </si>
-  <si>
     <t>Belmont</t>
-  </si>
-  <si>
-    <t>Randwick-kensington</t>
   </si>
   <si>
     <t>Sandown</t>
@@ -91,10 +85,16 @@
     <t>Ipswich</t>
   </si>
   <si>
-    <t>Murray-bridge</t>
+    <t>TAB</t>
   </si>
   <si>
-    <t>Taupo</t>
+    <t>Randwick Kensington</t>
+  </si>
+  <si>
+    <t>Murray Bridge</t>
+  </si>
+  <si>
+    <t>3+10</t>
   </si>
 </sst>
 </file>
@@ -488,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12CD589-920F-400B-BFEF-F5FAFACF2E66}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,253 +1402,259 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B36" s="11">
-        <v>44432.905972222223</v>
+        <v>44433.835810185185</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
       </c>
       <c r="E36" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F36" s="9">
         <v>2</v>
       </c>
       <c r="G36" s="7">
+        <v>8</v>
+      </c>
+      <c r="H36" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B37" s="11">
-        <v>44432.906122685185</v>
+        <v>44433.835810185185</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
       </c>
       <c r="E37" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F37" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="7">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H37" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B38" s="11">
-        <v>44432.906261574077</v>
+        <v>44433.835810185185</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D38" s="9">
         <v>3</v>
       </c>
       <c r="E38" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G38" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B39" s="11">
-        <v>44432.906412037039</v>
+        <v>44433.835810185185</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D39" s="9">
         <v>4</v>
       </c>
       <c r="E39" s="9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F39" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G39" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H39" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B40" s="11">
-        <v>44432.906550925924</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40" s="9">
         <v>5</v>
       </c>
       <c r="E40" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G40" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H40" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11">
-        <v>44432.906701388885</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D41" s="9">
         <v>6</v>
       </c>
       <c r="E41" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F41" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H41" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B42" s="11">
-        <v>44432.906840277778</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D42" s="9">
         <v>7</v>
       </c>
       <c r="E42" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H42" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B43" s="11">
-        <v>44432.906990740739</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E43" s="9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F43" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B44" s="11">
-        <v>44432.907141203701</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E44" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F44" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G44" s="7">
         <v>5</v>
       </c>
       <c r="H44" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B45" s="11">
-        <v>44432.907280092593</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H45" s="7">
         <v>6</v>
@@ -1656,181 +1662,178 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B46" s="11">
-        <v>44432.907430555555</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="9">
         <v>7</v>
       </c>
       <c r="G46" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B47" s="11">
-        <v>44432.907569444447</v>
+        <v>44433.835821759261</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E47" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F47" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H47" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B48" s="11">
-        <v>44432.907719907409</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E48" s="9">
-        <v>3</v>
-      </c>
-      <c r="F48" s="9">
-        <v>4</v>
-      </c>
-      <c r="G48" s="7">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H48" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" s="11">
-        <v>44432.907870370371</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E49" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F49" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G49" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H49" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="11">
+        <v>44433.835833333331</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="9">
+        <v>8</v>
+      </c>
+      <c r="E50" s="9">
+        <v>3</v>
+      </c>
+      <c r="F50" s="9">
         <v>14</v>
       </c>
-      <c r="B50" s="11">
-        <v>44432.908009259256</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="9">
-        <v>6</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9">
-        <v>6</v>
-      </c>
       <c r="G50" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B51" s="11">
-        <v>44432.908159722225</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D51" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E51" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F51" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G51" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H51" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B52" s="11">
-        <v>44432.908310185187</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D52" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E52" s="9">
         <v>7</v>
       </c>
       <c r="F52" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -1838,16 +1841,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B53" s="11">
-        <v>44432.908449074072</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
@@ -1856,835 +1859,566 @@
         <v>13</v>
       </c>
       <c r="G53" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H53" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B54" s="11">
-        <v>44432.908599537041</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F54" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G54" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H54" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B55" s="11">
-        <v>44432.908750000002</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F55" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
       </c>
       <c r="H55" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B56" s="11">
-        <v>44432.908888888887</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D56" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E56" s="9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G56" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H56" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B57" s="11">
-        <v>44432.909039351849</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D57" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G57" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H57" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B58" s="11">
-        <v>44432.909189814818</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D58" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58" s="9">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F58" s="9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G58" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H58" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B59" s="11">
-        <v>44432.909351851849</v>
+        <v>44433.835833333331</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E59" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59" s="9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B60" s="11">
-        <v>44432.909502314818</v>
+        <v>44433.835844907408</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E60" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F60" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B61" s="11">
-        <v>44432.90965277778</v>
+        <v>44433.835844907408</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E61" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F61" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G61" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B62" s="11">
-        <v>44432.909803240742</v>
+        <v>44433.835844907408</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E62" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F62" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G62" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H62" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B63" s="11">
-        <v>44432.909953703704</v>
+        <v>44433.835844907408</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F63" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H63" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B64" s="11">
-        <v>44432.910092592596</v>
+        <v>44433.835844907408</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E64" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F64" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H64" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B65" s="11">
-        <v>44432.910277777781</v>
+        <v>44433.835844907408</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E65" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F65" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G65" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H65" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="11">
+        <v>44433.835844907408</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="9">
+        <v>8</v>
+      </c>
+      <c r="E66" s="9">
+        <v>18</v>
+      </c>
+      <c r="F66" s="9">
+        <v>7</v>
+      </c>
+      <c r="G66" s="7">
+        <v>11</v>
+      </c>
+      <c r="H66" s="7">
         <v>14</v>
-      </c>
-      <c r="B66" s="11">
-        <v>44432.910428240742</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="9">
-        <v>5</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9">
-        <v>8</v>
-      </c>
-      <c r="G66" s="7">
-        <v>6</v>
-      </c>
-      <c r="H66" s="7">
-        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="11">
+        <v>44433.835844907408</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="11">
-        <v>44432.910578703704</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D67" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E67" s="9">
         <v>1</v>
       </c>
       <c r="F67" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="11">
+        <v>44433.835844907408</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="11">
-        <v>44432.910729166666</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D68" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E68" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F68" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68" s="7">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="11">
+        <v>44433.835856481484</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="11">
-        <v>44432.910868055558</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D69" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E69" s="9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F69" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="7">
         <v>7</v>
       </c>
       <c r="H69" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="11">
+        <v>44433.835856481484</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="11">
-        <v>44432.91101851852</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D70" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E70" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F70" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G70" s="7">
         <v>7</v>
+      </c>
+      <c r="H70" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="11">
+        <v>44433.835856481484</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="11">
-        <v>44432.911168981482</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D71" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F71" s="9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
       </c>
       <c r="H71" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="11">
+        <v>44433.835856481484</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="11">
-        <v>44432.911319444444</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D72" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E72" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F72" s="9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G72" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="11">
+        <v>44433.835856481484</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="11">
-        <v>44432.911458333336</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D73" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E73" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F73" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
       <c r="H73" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="11">
+        <v>44433.835856481484</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="11">
-        <v>44432.911608796298</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D74" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E74" s="9">
         <v>2</v>
       </c>
       <c r="F74" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G74" s="7">
         <v>9</v>
       </c>
       <c r="H74" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="11">
-        <v>44432.911759259259</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="9">
-        <v>5</v>
-      </c>
-      <c r="E75" s="9">
-        <v>6</v>
-      </c>
-      <c r="F75" s="9">
-        <v>12</v>
-      </c>
-      <c r="G75" s="7">
-        <v>8</v>
-      </c>
-      <c r="H75" s="7">
-        <v>9</v>
-      </c>
+      <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="11">
-        <v>44432.911898148152</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="9">
-        <v>6</v>
-      </c>
-      <c r="E76" s="9">
-        <v>2</v>
-      </c>
-      <c r="F76" s="9">
-        <v>1</v>
-      </c>
-      <c r="G76" s="7">
-        <v>5</v>
-      </c>
-      <c r="H76" s="7">
-        <v>4</v>
-      </c>
+      <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="11">
-        <v>44432.912048611113</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="9">
-        <v>7</v>
-      </c>
-      <c r="E77" s="9">
-        <v>5</v>
-      </c>
-      <c r="F77" s="9">
-        <v>8</v>
-      </c>
-      <c r="G77" s="7">
-        <v>1</v>
-      </c>
-      <c r="H77" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="11">
-        <v>44432.912199074075</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="9">
-        <v>8</v>
-      </c>
-      <c r="E78" s="9">
-        <v>14</v>
-      </c>
-      <c r="F78" s="9">
-        <v>8</v>
-      </c>
-      <c r="G78" s="7">
-        <v>4</v>
-      </c>
-      <c r="H78" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="11">
-        <v>44432.91233796296</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="9">
-        <v>9</v>
-      </c>
-      <c r="E79" s="9">
-        <v>11</v>
-      </c>
-      <c r="F79" s="9">
-        <v>16</v>
-      </c>
-      <c r="G79" s="7">
-        <v>4</v>
-      </c>
-      <c r="H79" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="11">
-        <v>44432.912488425929</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="11">
-        <v>44432.912638888891</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="11">
-        <v>44432.912777777776</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="11">
-        <v>44432.912928240738</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="11">
-        <v>44432.91306712963</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="11">
-        <v>44432.913217592592</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="11">
-        <v>44432.913368055553</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="11">
-        <v>44432.913506944446</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="11">
-        <v>44432.913657407407</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="11">
-        <v>44432.913807870369</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="11">
-        <v>44432.913946759261</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="9">
-        <v>11</v>
-      </c>
+      <c r="B77" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Ethan/ScrapeBets.xlsx
+++ b/Ethan/ScrapeBets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Upwork\Ethan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD98F86-060C-432B-8373-DF7813C12C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A7CEAB-01A7-4940-8672-3FE4C325807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30465" yWindow="1830" windowWidth="27015" windowHeight="9615" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
+    <workbookView minimized="1" xWindow="30135" yWindow="1395" windowWidth="27015" windowHeight="9615" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bets" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="86">
   <si>
     <t>Wait</t>
   </si>
@@ -76,25 +76,220 @@
     <t>Queanbeyan</t>
   </si>
   <si>
-    <t>Belmont</t>
-  </si>
-  <si>
-    <t>Sandown</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
     <t>TAB</t>
   </si>
   <si>
-    <t>Randwick Kensington</t>
-  </si>
-  <si>
-    <t>Murray Bridge</t>
-  </si>
-  <si>
-    <t>3+10</t>
+    <t>CAULFIELD</t>
+  </si>
+  <si>
+    <t>1 Time Rating</t>
+  </si>
+  <si>
+    <t>1 Recent Form</t>
+  </si>
+  <si>
+    <t>1 Distance</t>
+  </si>
+  <si>
+    <t>1 Best Overall</t>
+  </si>
+  <si>
+    <t>1 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>1 Class</t>
+  </si>
+  <si>
+    <t>1 Best Form</t>
+  </si>
+  <si>
+    <t>2 Time Rating</t>
+  </si>
+  <si>
+    <t>2 Recent Form</t>
+  </si>
+  <si>
+    <t>2 Distance</t>
+  </si>
+  <si>
+    <t>2 Best Overall</t>
+  </si>
+  <si>
+    <t>2 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>2 Class</t>
+  </si>
+  <si>
+    <t>2 Best Form</t>
+  </si>
+  <si>
+    <t>3 Time Rating</t>
+  </si>
+  <si>
+    <t>3 Recent Form</t>
+  </si>
+  <si>
+    <t>3 Distance</t>
+  </si>
+  <si>
+    <t>3 Best Overall</t>
+  </si>
+  <si>
+    <t>3 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>3 Class</t>
+  </si>
+  <si>
+    <t>3 Best Form</t>
+  </si>
+  <si>
+    <t>4 Time Rating</t>
+  </si>
+  <si>
+    <t>4 Recent Form</t>
+  </si>
+  <si>
+    <t>4 Distance</t>
+  </si>
+  <si>
+    <t>4 Best Overall</t>
+  </si>
+  <si>
+    <t>4 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>4 Class</t>
+  </si>
+  <si>
+    <t>4 Best Form</t>
+  </si>
+  <si>
+    <t>5 Time Rating</t>
+  </si>
+  <si>
+    <t>5 Recent Form</t>
+  </si>
+  <si>
+    <t>5 Distance</t>
+  </si>
+  <si>
+    <t>5 Best Overall</t>
+  </si>
+  <si>
+    <t>5 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>5 Class</t>
+  </si>
+  <si>
+    <t>5 Best Form</t>
+  </si>
+  <si>
+    <t>6 Time Rating</t>
+  </si>
+  <si>
+    <t>6 Recent Form</t>
+  </si>
+  <si>
+    <t>6 Distance</t>
+  </si>
+  <si>
+    <t>6 Best Overall</t>
+  </si>
+  <si>
+    <t>6 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>6 Class</t>
+  </si>
+  <si>
+    <t>6 Best Form</t>
+  </si>
+  <si>
+    <t>7 Time Rating</t>
+  </si>
+  <si>
+    <t>7 Recent Form</t>
+  </si>
+  <si>
+    <t>7 Distance</t>
+  </si>
+  <si>
+    <t>7 Best Overall</t>
+  </si>
+  <si>
+    <t>7 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>7 Class</t>
+  </si>
+  <si>
+    <t>7 Best Form</t>
+  </si>
+  <si>
+    <t>8 Time Rating</t>
+  </si>
+  <si>
+    <t>8 Recent Form</t>
+  </si>
+  <si>
+    <t>8 Distance</t>
+  </si>
+  <si>
+    <t>8 Best Overall</t>
+  </si>
+  <si>
+    <t>8 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>8 Class</t>
+  </si>
+  <si>
+    <t>8 Best Form</t>
+  </si>
+  <si>
+    <t>9 Time Rating</t>
+  </si>
+  <si>
+    <t>9 Recent Form</t>
+  </si>
+  <si>
+    <t>9 Distance</t>
+  </si>
+  <si>
+    <t>9 Best Overall</t>
+  </si>
+  <si>
+    <t>9 SkyForm Rating</t>
+  </si>
+  <si>
+    <t>9 Class</t>
+  </si>
+  <si>
+    <t>9 Best Form</t>
+  </si>
+  <si>
+    <t>DOOMBEN</t>
+  </si>
+  <si>
+    <t>KEMBLA-GRANGE</t>
+  </si>
+  <si>
+    <t>10 Time Rating</t>
+  </si>
+  <si>
+    <t>10 Recent Form</t>
+  </si>
+  <si>
+    <t>10 Distance</t>
+  </si>
+  <si>
+    <t>10 Best Overall</t>
+  </si>
+  <si>
+    <t>10 SkyForm Rating</t>
   </si>
 </sst>
 </file>
@@ -488,19 +683,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12CD589-920F-400B-BFEF-F5FAFACF2E66}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C33"/>
+      <pane ySplit="2" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.140625" style="5"/>
@@ -1402,74 +1597,74 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B36" s="11">
-        <v>44433.835810185185</v>
+        <v>44434.903368055559</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E36" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F36" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H36" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="11">
+        <v>44434.903368055559</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="11">
-        <v>44433.835810185185</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="9">
-        <v>2</v>
-      </c>
       <c r="E37" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F37" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" s="11">
-        <v>44433.835810185185</v>
+        <v>44434.903368055559</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="9">
-        <v>3</v>
-      </c>
       <c r="E38" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F38" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="7">
         <v>4</v>
@@ -1480,25 +1675,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B39" s="11">
-        <v>44433.835810185185</v>
+        <v>44434.903368055559</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="9">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E39" s="9">
         <v>2</v>
       </c>
       <c r="F39" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G39" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -1506,25 +1701,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B40" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.903368055559</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="9">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E40" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F40" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -1532,103 +1727,103 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B41" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.903368055559</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="9">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E41" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F41" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H41" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B42" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.903379629628</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="9">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="E42" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H42" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B43" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.90357638889</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="9">
-        <v>1</v>
+      <c r="D43" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E43" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F43" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H43" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B44" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.90357638889</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="9">
-        <v>2</v>
+      <c r="D44" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E44" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
         <v>10</v>
-      </c>
-      <c r="G44" s="7">
-        <v>5</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -1636,204 +1831,207 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B45" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.90357638889</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="9">
-        <v>3</v>
+      <c r="D45" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E45" s="9">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2</v>
+      </c>
+      <c r="G45" s="7">
         <v>7</v>
       </c>
-      <c r="F45" s="9">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7">
-        <v>2</v>
-      </c>
       <c r="H45" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B46" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.90357638889</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="9">
-        <v>4</v>
+      <c r="D46" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E46" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F46" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H46" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B47" s="11">
-        <v>44433.835821759261</v>
+        <v>44434.903587962966</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="9">
-        <v>5</v>
+      <c r="D47" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E47" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" s="9">
         <v>3</v>
       </c>
       <c r="G47" s="7">
+        <v>5</v>
+      </c>
+      <c r="H47" s="7">
         <v>7</v>
-      </c>
-      <c r="H47" s="7">
-        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B48" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903587962966</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="9">
-        <v>6</v>
+      <c r="D48" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E48" s="9">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="9">
+        <v>5</v>
+      </c>
+      <c r="G48" s="7">
+        <v>7</v>
       </c>
       <c r="H48" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903587962966</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="9">
+        <v>6</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
         <v>7</v>
       </c>
-      <c r="E49" s="9">
-        <v>11</v>
-      </c>
-      <c r="F49" s="9">
-        <v>10</v>
-      </c>
-      <c r="G49" s="7">
-        <v>3</v>
-      </c>
       <c r="H49" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B50" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903865740744</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="9">
-        <v>8</v>
+      <c r="D50" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E50" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B51" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903865740744</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="9">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E51" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F51" s="9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G51" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H51" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B52" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903865740744</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="9">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E52" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F52" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G52" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -1841,337 +2039,337 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B53" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903865740744</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="9">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E53" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G53" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H53" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B54" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903877314813</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="9">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E54" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F54" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B55" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903877314813</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="9">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E55" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F55" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H55" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B56" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.903877314813</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="9">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E56" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B57" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.904097222221</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="9">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E57" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G57" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B58" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.904097222221</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="9">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E58" s="9">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F58" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G58" s="7">
         <v>5</v>
       </c>
       <c r="H58" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B59" s="11">
-        <v>44433.835833333331</v>
+        <v>44434.904097222221</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="9">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E59" s="9">
         <v>1</v>
       </c>
       <c r="F59" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H59" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B60" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904108796298</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="9">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E60" s="9">
         <v>2</v>
       </c>
       <c r="F60" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G60" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H60" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B61" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904108796298</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="9">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E61" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F61" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H61" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B62" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904108796298</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="9">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E62" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F62" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H62" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B63" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904108796298</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="9">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E63" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G63" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H63" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B64" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904293981483</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="9">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E64" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B65" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904293981483</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="9">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E65" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F65" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G65" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H65" s="7">
         <v>11</v>
@@ -2179,51 +2377,51 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B66" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904305555552</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="9">
+        <v>15</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>5</v>
+      </c>
+      <c r="G66" s="7">
+        <v>6</v>
+      </c>
+      <c r="H66" s="7">
         <v>8</v>
-      </c>
-      <c r="E66" s="9">
-        <v>18</v>
-      </c>
-      <c r="F66" s="9">
-        <v>7</v>
-      </c>
-      <c r="G66" s="7">
-        <v>11</v>
-      </c>
-      <c r="H66" s="7">
-        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B67" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904305555552</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E67" s="9">
         <v>1</v>
       </c>
       <c r="F67" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G67" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H67" s="7">
         <v>3</v>
@@ -2231,129 +2429,129 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B68" s="11">
-        <v>44433.835844907408</v>
+        <v>44434.904305555552</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="9">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E68" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G68" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B69" s="11">
-        <v>44433.835856481484</v>
+        <v>44434.904305555552</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="9">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9">
+        <v>8</v>
+      </c>
+      <c r="G69" s="7">
+        <v>5</v>
+      </c>
+      <c r="H69" s="7">
         <v>11</v>
-      </c>
-      <c r="F69" s="9">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7">
-        <v>7</v>
-      </c>
-      <c r="H69" s="7">
-        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B70" s="11">
-        <v>44433.835856481484</v>
+        <v>44434.904317129629</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="9">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E70" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F70" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G70" s="7">
         <v>7</v>
       </c>
       <c r="H70" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B71" s="11">
-        <v>44433.835856481484</v>
+        <v>44434.904513888891</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="9">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E71" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F71" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B72" s="11">
-        <v>44433.835856481484</v>
+        <v>44434.904513888891</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="9">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E72" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G72" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H72" s="7">
         <v>7</v>
@@ -2361,25 +2559,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B73" s="11">
-        <v>44433.835856481484</v>
+        <v>44434.90452546296</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="9">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E73" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H73" s="7">
         <v>9</v>
@@ -2387,38 +2585,4059 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="11">
+        <v>44434.90452546296</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9">
+        <v>2</v>
+      </c>
+      <c r="G74" s="7">
+        <v>6</v>
+      </c>
+      <c r="H74" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="11">
+        <v>44434.90452546296</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2</v>
+      </c>
+      <c r="G75" s="7">
+        <v>6</v>
+      </c>
+      <c r="H75" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="11">
+        <v>44434.90452546296</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
+      <c r="F76" s="9">
+        <v>4</v>
+      </c>
+      <c r="G76" s="7">
+        <v>6</v>
+      </c>
+      <c r="H76" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="11">
+        <v>44434.90452546296</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1</v>
+      </c>
+      <c r="F77" s="9">
+        <v>4</v>
+      </c>
+      <c r="G77" s="7">
+        <v>2</v>
+      </c>
+      <c r="H77" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="11">
+        <v>44434.904791666668</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="9">
+        <v>9</v>
+      </c>
+      <c r="F78" s="9">
+        <v>7</v>
+      </c>
+      <c r="G78" s="7">
+        <v>5</v>
+      </c>
+      <c r="H78" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="11">
+        <v>44434.904791666668</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="9">
+        <v>3</v>
+      </c>
+      <c r="F79" s="9">
+        <v>6</v>
+      </c>
+      <c r="G79" s="7">
+        <v>7</v>
+      </c>
+      <c r="H79" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="11">
+        <v>44434.904791666668</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="9">
+        <v>2</v>
+      </c>
+      <c r="F80" s="9">
+        <v>3</v>
+      </c>
+      <c r="G80" s="7">
+        <v>6</v>
+      </c>
+      <c r="H80" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="11">
+        <v>44434.904791666668</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="9">
+        <v>7</v>
+      </c>
+      <c r="F81" s="9">
+        <v>9</v>
+      </c>
+      <c r="G81" s="7">
+        <v>3</v>
+      </c>
+      <c r="H81" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="11">
+        <v>44434.904803240737</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="9">
+        <v>9</v>
+      </c>
+      <c r="F82" s="9">
+        <v>7</v>
+      </c>
+      <c r="G82" s="7">
+        <v>5</v>
+      </c>
+      <c r="H82" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="11">
+        <v>44434.904803240737</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="9">
+        <v>9</v>
+      </c>
+      <c r="F83" s="9">
+        <v>7</v>
+      </c>
+      <c r="G83" s="7">
+        <v>10</v>
+      </c>
+      <c r="H83" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="11">
+        <v>44434.904803240737</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="9">
+        <v>3</v>
+      </c>
+      <c r="F84" s="9">
+        <v>2</v>
+      </c>
+      <c r="G84" s="7">
+        <v>8</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="11">
+        <v>44434.905011574076</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="9">
+        <v>2</v>
+      </c>
+      <c r="F85" s="9">
+        <v>10</v>
+      </c>
+      <c r="G85" s="7">
+        <v>11</v>
+      </c>
+      <c r="H85" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="11">
+        <v>44434.905011574076</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="9">
+        <v>3</v>
+      </c>
+      <c r="F86" s="9">
+        <v>6</v>
+      </c>
+      <c r="G86" s="7">
+        <v>12</v>
+      </c>
+      <c r="H86" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="11">
+        <v>44434.905023148145</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="9">
+        <v>2</v>
+      </c>
+      <c r="F87" s="9">
+        <v>3</v>
+      </c>
+      <c r="G87" s="7">
+        <v>10</v>
+      </c>
+      <c r="H87" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="11">
+        <v>44434.905023148145</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="9">
+        <v>2</v>
+      </c>
+      <c r="F88" s="9">
+        <v>10</v>
+      </c>
+      <c r="G88" s="7">
+        <v>3</v>
+      </c>
+      <c r="H88" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="11">
+        <v>44434.905023148145</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="9">
+        <v>2</v>
+      </c>
+      <c r="F89" s="9">
+        <v>10</v>
+      </c>
+      <c r="G89" s="7">
+        <v>11</v>
+      </c>
+      <c r="H89" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="11">
+        <v>44434.905023148145</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2</v>
+      </c>
+      <c r="F90" s="9">
+        <v>9</v>
+      </c>
+      <c r="G90" s="7">
+        <v>5</v>
+      </c>
+      <c r="H90" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="11">
+        <v>44434.905023148145</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="9">
+        <v>2</v>
+      </c>
+      <c r="F91" s="9">
+        <v>3</v>
+      </c>
+      <c r="G91" s="7">
+        <v>10</v>
+      </c>
+      <c r="H91" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="11">
+        <v>44434.905289351853</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="9">
+        <v>11</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7">
+        <v>3</v>
+      </c>
+      <c r="H92" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="11">
+        <v>44434.905289351853</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7">
+        <v>3</v>
+      </c>
+      <c r="H93" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="11">
+        <v>44434.905289351853</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="9">
+        <v>2</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7">
+        <v>3</v>
+      </c>
+      <c r="H94" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="11">
+        <v>44434.905289351853</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" s="9">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9">
+        <v>3</v>
+      </c>
+      <c r="G95" s="7">
+        <v>2</v>
+      </c>
+      <c r="H95" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="11">
+        <v>44434.905289351853</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E96" s="9">
+        <v>11</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7">
+        <v>3</v>
+      </c>
+      <c r="H96" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="11">
+        <v>44434.905289351853</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E97" s="9">
+        <v>3</v>
+      </c>
+      <c r="F97" s="9">
+        <v>12</v>
+      </c>
+      <c r="G97" s="7">
+        <v>15</v>
+      </c>
+      <c r="H97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="11">
+        <v>44434.905289351853</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E98" s="9">
+        <v>2</v>
+      </c>
+      <c r="F98" s="9">
+        <v>4</v>
+      </c>
+      <c r="G98" s="7">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="11">
+        <v>44434.905590277776</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="9">
+        <v>10</v>
+      </c>
+      <c r="F99" s="9">
+        <v>9</v>
+      </c>
+      <c r="G99" s="7">
+        <v>3</v>
+      </c>
+      <c r="H99" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="11">
+        <v>44434.905590277776</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="11">
-        <v>44433.835856481484</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="9">
+      <c r="E100" s="9">
+        <v>2</v>
+      </c>
+      <c r="F100" s="9">
+        <v>5</v>
+      </c>
+      <c r="G100" s="7">
+        <v>7</v>
+      </c>
+      <c r="H100" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="11">
+        <v>44434.905590277776</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="9">
+        <v>2</v>
+      </c>
+      <c r="F101" s="9">
+        <v>5</v>
+      </c>
+      <c r="G101" s="7">
+        <v>3</v>
+      </c>
+      <c r="H101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="11">
+        <v>44434.905590277776</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="9">
+        <v>2</v>
+      </c>
+      <c r="F102" s="9">
+        <v>10</v>
+      </c>
+      <c r="G102" s="7">
+        <v>5</v>
+      </c>
+      <c r="H102" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="11">
+        <v>44434.905590277776</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="9">
+        <v>10</v>
+      </c>
+      <c r="F103" s="9">
+        <v>9</v>
+      </c>
+      <c r="G103" s="7">
+        <v>3</v>
+      </c>
+      <c r="H103" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="11">
+        <v>44434.905590277776</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="9">
+        <v>14</v>
+      </c>
+      <c r="F104" s="9">
+        <v>11</v>
+      </c>
+      <c r="G104" s="7">
+        <v>7</v>
+      </c>
+      <c r="H104" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="11">
+        <v>44434.905601851853</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="9">
+        <v>2</v>
+      </c>
+      <c r="F105" s="9">
+        <v>5</v>
+      </c>
+      <c r="G105" s="7">
+        <v>3</v>
+      </c>
+      <c r="H105" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="11">
+        <v>44434.905868055554</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="9">
+        <v>4</v>
+      </c>
+      <c r="F106" s="9">
+        <v>12</v>
+      </c>
+      <c r="G106" s="7">
+        <v>9</v>
+      </c>
+      <c r="H106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="11">
+        <v>44434.905868055554</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="9">
+        <v>4</v>
+      </c>
+      <c r="F107" s="9">
+        <v>6</v>
+      </c>
+      <c r="G107" s="7">
+        <v>2</v>
+      </c>
+      <c r="H107" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="11">
+        <v>44434.905868055554</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="9">
+        <v>1</v>
+      </c>
+      <c r="F108" s="9">
+        <v>3</v>
+      </c>
+      <c r="G108" s="7">
+        <v>4</v>
+      </c>
+      <c r="H108" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="11">
+        <v>44434.905868055554</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="9">
+        <v>4</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1</v>
+      </c>
+      <c r="G109" s="7">
+        <v>12</v>
+      </c>
+      <c r="H109" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="11">
+        <v>44434.905868055554</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="9">
+        <v>4</v>
+      </c>
+      <c r="F110" s="9">
+        <v>12</v>
+      </c>
+      <c r="G110" s="7">
+        <v>9</v>
+      </c>
+      <c r="H110" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="11">
+        <v>44434.905868055554</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="9">
+        <v>4</v>
+      </c>
+      <c r="F111" s="9">
+        <v>13</v>
+      </c>
+      <c r="G111" s="7">
+        <v>7</v>
+      </c>
+      <c r="H111" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="11">
+        <v>44434.905868055554</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="9">
+        <v>1</v>
+      </c>
+      <c r="F112" s="9">
+        <v>2</v>
+      </c>
+      <c r="G112" s="7">
+        <v>4</v>
+      </c>
+      <c r="H112" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="11">
+        <v>44434.906145833331</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="9">
+        <v>13</v>
+      </c>
+      <c r="F113" s="9">
+        <v>7</v>
+      </c>
+      <c r="G113" s="7">
         <v>8</v>
       </c>
-      <c r="E74" s="9">
-        <v>2</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="H113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="11">
+        <v>44434.906145833331</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" s="9">
+        <v>5</v>
+      </c>
+      <c r="F114" s="9">
+        <v>11</v>
+      </c>
+      <c r="G114" s="7">
+        <v>1</v>
+      </c>
+      <c r="H114" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="11">
+        <v>44434.906157407408</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="9">
+        <v>5</v>
+      </c>
+      <c r="F115" s="9">
+        <v>2</v>
+      </c>
+      <c r="G115" s="7">
+        <v>1</v>
+      </c>
+      <c r="H115" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="11">
+        <v>44434.906157407408</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="9">
+        <v>5</v>
+      </c>
+      <c r="F116" s="9">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7">
+        <v>7</v>
+      </c>
+      <c r="H116" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="11">
+        <v>44434.906157407408</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="9">
+        <v>13</v>
+      </c>
+      <c r="F117" s="9">
+        <v>7</v>
+      </c>
+      <c r="G117" s="7">
         <v>8</v>
       </c>
-      <c r="G74" s="7">
-        <v>9</v>
-      </c>
-      <c r="H74" s="7">
+      <c r="H117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="11">
+        <v>44434.906157407408</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="9">
+        <v>7</v>
+      </c>
+      <c r="F118" s="9">
+        <v>8</v>
+      </c>
+      <c r="G118" s="7">
+        <v>11</v>
+      </c>
+      <c r="H118" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="11">
+        <v>44434.906168981484</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="9">
+        <v>1</v>
+      </c>
+      <c r="F119" s="9">
+        <v>3</v>
+      </c>
+      <c r="G119" s="7">
+        <v>5</v>
+      </c>
+      <c r="H119" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="11">
+        <v>44434.906400462962</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="9">
+        <v>5</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7">
+        <v>2</v>
+      </c>
+      <c r="H120" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="11">
+        <v>44434.906400462962</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="9">
+        <v>2</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1</v>
+      </c>
+      <c r="G121" s="7">
+        <v>6</v>
+      </c>
+      <c r="H121" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="11">
+        <v>44434.906400462962</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="9">
+        <v>6</v>
+      </c>
+      <c r="F122" s="9">
+        <v>5</v>
+      </c>
+      <c r="G122" s="7">
+        <v>8</v>
+      </c>
+      <c r="H122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="11">
+        <v>44434.906412037039</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="9">
+        <v>5</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7">
+        <v>2</v>
+      </c>
+      <c r="H123" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="11">
+        <v>44434.906412037039</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="9">
+        <v>5</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7">
+        <v>2</v>
+      </c>
+      <c r="H124" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="11">
+        <v>44434.906412037039</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="9">
+        <v>5</v>
+      </c>
+      <c r="F125" s="9">
+        <v>8</v>
+      </c>
+      <c r="G125" s="7">
+        <v>10</v>
+      </c>
+      <c r="H125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="11">
+        <v>44434.906412037039</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="9">
+        <v>2</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1</v>
+      </c>
+      <c r="G126" s="7">
+        <v>4</v>
+      </c>
+      <c r="H126" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="11">
+        <v>44434.906689814816</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="9">
+        <v>2</v>
+      </c>
+      <c r="F127" s="9">
+        <v>10</v>
+      </c>
+      <c r="G127" s="7">
+        <v>8</v>
+      </c>
+      <c r="H127" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="11">
+        <v>44434.906689814816</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="9">
+        <v>1</v>
+      </c>
+      <c r="F128" s="9">
+        <v>3</v>
+      </c>
+      <c r="G128" s="7">
+        <v>6</v>
+      </c>
+      <c r="H128" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="11">
+        <v>44434.906689814816</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="9">
+        <v>1</v>
+      </c>
+      <c r="F129" s="9">
+        <v>6</v>
+      </c>
+      <c r="G129" s="7">
+        <v>4</v>
+      </c>
+      <c r="H129" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="11">
+        <v>44434.906689814816</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E130" s="9">
+        <v>2</v>
+      </c>
+      <c r="F130" s="9">
+        <v>1</v>
+      </c>
+      <c r="G130" s="7">
+        <v>3</v>
+      </c>
+      <c r="H130" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="11">
+        <v>44434.906689814816</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131" s="9">
+        <v>2</v>
+      </c>
+      <c r="F131" s="9">
+        <v>10</v>
+      </c>
+      <c r="G131" s="7">
+        <v>8</v>
+      </c>
+      <c r="H131" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="11">
+        <v>44434.906701388885</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="9">
+        <v>3</v>
+      </c>
+      <c r="F132" s="9">
+        <v>8</v>
+      </c>
+      <c r="G132" s="7">
+        <v>7</v>
+      </c>
+      <c r="H132" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="11">
+        <v>44434.906701388885</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E133" s="9">
+        <v>1</v>
+      </c>
+      <c r="F133" s="9">
+        <v>2</v>
+      </c>
+      <c r="G133" s="7">
+        <v>6</v>
+      </c>
+      <c r="H133" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="11">
+        <v>44434.90693287037</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" s="9">
+        <v>11</v>
+      </c>
+      <c r="F134" s="9">
+        <v>10</v>
+      </c>
+      <c r="G134" s="7">
+        <v>5</v>
+      </c>
+      <c r="H134" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="11">
+        <v>44434.906944444447</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" s="9">
+        <v>3</v>
+      </c>
+      <c r="F135" s="9">
+        <v>4</v>
+      </c>
+      <c r="G135" s="7">
+        <v>9</v>
+      </c>
+      <c r="H135" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="11">
+        <v>44434.906944444447</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="9">
+        <v>3</v>
+      </c>
+      <c r="F136" s="9">
+        <v>4</v>
+      </c>
+      <c r="G136" s="7">
+        <v>7</v>
+      </c>
+      <c r="H136" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="11">
+        <v>44434.906944444447</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E137" s="9">
+        <v>3</v>
+      </c>
+      <c r="F137" s="9">
+        <v>4</v>
+      </c>
+      <c r="G137" s="7">
+        <v>5</v>
+      </c>
+      <c r="H137" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="11">
+        <v>44434.906944444447</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" s="9">
+        <v>5</v>
+      </c>
+      <c r="F138" s="9">
+        <v>6</v>
+      </c>
+      <c r="G138" s="7">
+        <v>10</v>
+      </c>
+      <c r="H138" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="11">
+        <v>44434.906944444447</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E139" s="9">
+        <v>12</v>
+      </c>
+      <c r="F139" s="9">
+        <v>3</v>
+      </c>
+      <c r="G139" s="7">
+        <v>15</v>
+      </c>
+      <c r="H139" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="11">
+        <v>44434.906944444447</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" s="9">
+        <v>3</v>
+      </c>
+      <c r="F140" s="9">
+        <v>2</v>
+      </c>
+      <c r="G140" s="7">
+        <v>4</v>
+      </c>
+      <c r="H140" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="11">
+        <v>44434.907187500001</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" s="9">
+        <v>2</v>
+      </c>
+      <c r="F141" s="9">
+        <v>12</v>
+      </c>
+      <c r="G141" s="7">
+        <v>1</v>
+      </c>
+      <c r="H141" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="11">
+        <v>44434.907187500001</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="9">
+        <v>2</v>
+      </c>
+      <c r="F142" s="9">
+        <v>10</v>
+      </c>
+      <c r="G142" s="7">
+        <v>11</v>
+      </c>
+      <c r="H142" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="11">
+        <v>44434.907199074078</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E143" s="9">
+        <v>2</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7">
+        <v>9</v>
+      </c>
+      <c r="H143" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="11">
+        <v>44434.907199074078</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E144" s="9">
+        <v>2</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1</v>
+      </c>
+      <c r="G144" s="7">
+        <v>12</v>
+      </c>
+      <c r="H144" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="11">
+        <v>44434.907199074078</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E145" s="9">
+        <v>2</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1</v>
+      </c>
+      <c r="G145" s="7">
+        <v>12</v>
+      </c>
+      <c r="H145" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="11">
+        <v>44434.907199074078</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" s="9">
+        <v>9</v>
+      </c>
+      <c r="F146" s="9">
+        <v>10</v>
+      </c>
+      <c r="G146" s="7">
+        <v>12</v>
+      </c>
+      <c r="H146" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="11">
+        <v>44434.907199074078</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="9">
+        <v>2</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7">
+        <v>9</v>
+      </c>
+      <c r="H147" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="11">
+        <v>44434.907407407409</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" s="9">
+        <v>6</v>
+      </c>
+      <c r="F148" s="9">
+        <v>4</v>
+      </c>
+      <c r="G148" s="7">
+        <v>11</v>
+      </c>
+      <c r="H148" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="11">
+        <v>44434.907407407409</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E149" s="9">
+        <v>4</v>
+      </c>
+      <c r="F149" s="9">
+        <v>8</v>
+      </c>
+      <c r="G149" s="7">
+        <v>6</v>
+      </c>
+      <c r="H149" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="11">
+        <v>44434.907418981478</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" s="9">
+        <v>2</v>
+      </c>
+      <c r="F150" s="9">
+        <v>1</v>
+      </c>
+      <c r="G150" s="7">
+        <v>4</v>
+      </c>
+      <c r="H150" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="11">
+        <v>44434.907418981478</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="9">
+        <v>4</v>
+      </c>
+      <c r="F151" s="9">
+        <v>6</v>
+      </c>
+      <c r="G151" s="7">
+        <v>8</v>
+      </c>
+      <c r="H151" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="11">
+        <v>44434.907418981478</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="9">
+        <v>4</v>
+      </c>
+      <c r="F152" s="9">
+        <v>11</v>
+      </c>
+      <c r="G152" s="7">
+        <v>6</v>
+      </c>
+      <c r="H152" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="11">
+        <v>44434.907418981478</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E153" s="9">
+        <v>6</v>
+      </c>
+      <c r="F153" s="9">
+        <v>8</v>
+      </c>
+      <c r="G153" s="7">
+        <v>11</v>
+      </c>
+      <c r="H153" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="11"/>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="11">
+        <v>44434.907418981478</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E154" s="9">
+        <v>1</v>
+      </c>
+      <c r="F154" s="9">
+        <v>4</v>
+      </c>
+      <c r="G154" s="7">
+        <v>7</v>
+      </c>
+      <c r="H154" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="11">
+        <v>44434.907627314817</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E155" s="9">
+        <v>10</v>
+      </c>
+      <c r="F155" s="9">
+        <v>1</v>
+      </c>
+      <c r="G155" s="7">
+        <v>6</v>
+      </c>
+      <c r="H155" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="11">
+        <v>44434.907627314817</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E156" s="9">
+        <v>2</v>
+      </c>
+      <c r="F156" s="9">
+        <v>3</v>
+      </c>
+      <c r="G156" s="7">
+        <v>9</v>
+      </c>
+      <c r="H156" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="11">
+        <v>44434.907638888886</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E157" s="9">
+        <v>2</v>
+      </c>
+      <c r="F157" s="9">
+        <v>3</v>
+      </c>
+      <c r="G157" s="7">
+        <v>1</v>
+      </c>
+      <c r="H157" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="11">
+        <v>44434.907638888886</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E158" s="9">
+        <v>1</v>
+      </c>
+      <c r="F158" s="9">
+        <v>2</v>
+      </c>
+      <c r="G158" s="7">
+        <v>10</v>
+      </c>
+      <c r="H158" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="11">
+        <v>44434.907638888886</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E159" s="9">
+        <v>1</v>
+      </c>
+      <c r="F159" s="9">
+        <v>10</v>
+      </c>
+      <c r="G159" s="7">
+        <v>2</v>
+      </c>
+      <c r="H159" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="11">
+        <v>44434.907638888886</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E160" s="9">
+        <v>10</v>
+      </c>
+      <c r="F160" s="9">
+        <v>21</v>
+      </c>
+      <c r="G160" s="7">
+        <v>6</v>
+      </c>
+      <c r="H160" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="11">
+        <v>44434.907638888886</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E161" s="9">
+        <v>1</v>
+      </c>
+      <c r="F161" s="9">
+        <v>2</v>
+      </c>
+      <c r="G161" s="7">
+        <v>3</v>
+      </c>
+      <c r="H161" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="11">
+        <v>44434.907870370371</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="9">
+        <v>9</v>
+      </c>
+      <c r="F162" s="9">
+        <v>5</v>
+      </c>
+      <c r="G162" s="7">
+        <v>12</v>
+      </c>
+      <c r="H162" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="11">
+        <v>44434.907881944448</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="9">
+        <v>4</v>
+      </c>
+      <c r="F163" s="9">
+        <v>3</v>
+      </c>
+      <c r="G163" s="7">
+        <v>6</v>
+      </c>
+      <c r="H163" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="11">
+        <v>44434.907881944448</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="9">
+        <v>2</v>
+      </c>
+      <c r="F164" s="9">
+        <v>8</v>
+      </c>
+      <c r="G164" s="7">
+        <v>4</v>
+      </c>
+      <c r="H164" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="11">
+        <v>44434.907881944448</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="9">
+        <v>4</v>
+      </c>
+      <c r="F165" s="9">
+        <v>2</v>
+      </c>
+      <c r="G165" s="7">
+        <v>5</v>
+      </c>
+      <c r="H165" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="11">
+        <v>44434.907881944448</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="9">
+        <v>9</v>
+      </c>
+      <c r="F166" s="9">
+        <v>5</v>
+      </c>
+      <c r="G166" s="7">
+        <v>12</v>
+      </c>
+      <c r="H166" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="11">
+        <v>44434.907881944448</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" s="9">
+        <v>5</v>
+      </c>
+      <c r="F167" s="9">
+        <v>4</v>
+      </c>
+      <c r="G167" s="7">
+        <v>11</v>
+      </c>
+      <c r="H167" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="11">
+        <v>44434.907881944448</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="9">
+        <v>2</v>
+      </c>
+      <c r="F168" s="9">
+        <v>7</v>
+      </c>
+      <c r="G168" s="7">
+        <v>4</v>
+      </c>
+      <c r="H168" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="11">
+        <v>44434.908113425925</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="9">
+        <v>6</v>
+      </c>
+      <c r="F169" s="9">
+        <v>1</v>
+      </c>
+      <c r="G169" s="7">
+        <v>5</v>
+      </c>
+      <c r="H169" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="11">
+        <v>44434.908125000002</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="9">
+        <v>2</v>
+      </c>
+      <c r="F170" s="9">
+        <v>4</v>
+      </c>
+      <c r="G170" s="7">
+        <v>5</v>
+      </c>
+      <c r="H170" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="11">
+        <v>44434.908125000002</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="9">
+        <v>1</v>
+      </c>
+      <c r="F171" s="9">
+        <v>4</v>
+      </c>
+      <c r="G171" s="7">
+        <v>3</v>
+      </c>
+      <c r="H171" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="11">
+        <v>44434.908125000002</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="9">
+        <v>1</v>
+      </c>
+      <c r="F172" s="9">
+        <v>5</v>
+      </c>
+      <c r="G172" s="7">
+        <v>2</v>
+      </c>
+      <c r="H172" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="11">
+        <v>44434.908125000002</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="9">
+        <v>6</v>
+      </c>
+      <c r="F173" s="9">
+        <v>5</v>
+      </c>
+      <c r="G173" s="7">
+        <v>1</v>
+      </c>
+      <c r="H173" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="11">
+        <v>44434.908125000002</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="9">
+        <v>5</v>
+      </c>
+      <c r="F174" s="9">
+        <v>9</v>
+      </c>
+      <c r="G174" s="7">
+        <v>3</v>
+      </c>
+      <c r="H174" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="11">
+        <v>44434.908136574071</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" s="9">
+        <v>1</v>
+      </c>
+      <c r="F175" s="9">
+        <v>2</v>
+      </c>
+      <c r="G175" s="7">
+        <v>7</v>
+      </c>
+      <c r="H175" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="11">
+        <v>44434.908356481479</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="9">
+        <v>5</v>
+      </c>
+      <c r="F176" s="9">
+        <v>3</v>
+      </c>
+      <c r="G176" s="7">
+        <v>1</v>
+      </c>
+      <c r="H176" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="11">
+        <v>44434.908356481479</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" s="9">
+        <v>3</v>
+      </c>
+      <c r="F177" s="9">
+        <v>5</v>
+      </c>
+      <c r="G177" s="7">
+        <v>4</v>
+      </c>
+      <c r="H177" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="11">
+        <v>44434.908356481479</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E178" s="9">
+        <v>11</v>
+      </c>
+      <c r="F178" s="9">
+        <v>3</v>
+      </c>
+      <c r="G178" s="7">
+        <v>2</v>
+      </c>
+      <c r="H178" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="11">
+        <v>44434.908368055556</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" s="9">
+        <v>3</v>
+      </c>
+      <c r="F179" s="9">
+        <v>5</v>
+      </c>
+      <c r="G179" s="7">
+        <v>11</v>
+      </c>
+      <c r="H179" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="11">
+        <v>44434.908368055556</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" s="9">
+        <v>5</v>
+      </c>
+      <c r="F180" s="9">
+        <v>3</v>
+      </c>
+      <c r="G180" s="7">
+        <v>1</v>
+      </c>
+      <c r="H180" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="11">
+        <v>44434.908368055556</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="9">
+        <v>11</v>
+      </c>
+      <c r="F181" s="9">
+        <v>3</v>
+      </c>
+      <c r="G181" s="7">
+        <v>10</v>
+      </c>
+      <c r="H181" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="11">
+        <v>44434.908368055556</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="9">
+        <v>4</v>
+      </c>
+      <c r="F182" s="9">
+        <v>7</v>
+      </c>
+      <c r="G182" s="7">
+        <v>3</v>
+      </c>
+      <c r="H182" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="11">
+        <v>44434.908634259256</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="9">
+        <v>7</v>
+      </c>
+      <c r="F183" s="9">
+        <v>2</v>
+      </c>
+      <c r="G183" s="7">
+        <v>3</v>
+      </c>
+      <c r="H183" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" s="11">
+        <v>44434.908634259256</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="9">
+        <v>1</v>
+      </c>
+      <c r="F184" s="9">
+        <v>7</v>
+      </c>
+      <c r="G184" s="7">
+        <v>2</v>
+      </c>
+      <c r="H184" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="11">
+        <v>44434.908645833333</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E185" s="9">
+        <v>1</v>
+      </c>
+      <c r="F185" s="9">
+        <v>3</v>
+      </c>
+      <c r="G185" s="7">
+        <v>11</v>
+      </c>
+      <c r="H185" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="11">
+        <v>44434.908645833333</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E186" s="9">
+        <v>1</v>
+      </c>
+      <c r="F186" s="9">
+        <v>2</v>
+      </c>
+      <c r="G186" s="7">
+        <v>3</v>
+      </c>
+      <c r="H186" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="11">
+        <v>44434.908645833333</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E187" s="9">
+        <v>2</v>
+      </c>
+      <c r="F187" s="9">
+        <v>3</v>
+      </c>
+      <c r="G187" s="7">
+        <v>1</v>
+      </c>
+      <c r="H187" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" s="11">
+        <v>44434.908645833333</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E188" s="9">
+        <v>12</v>
+      </c>
+      <c r="F188" s="9">
+        <v>6</v>
+      </c>
+      <c r="G188" s="7">
+        <v>14</v>
+      </c>
+      <c r="H188" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="11">
+        <v>44434.908645833333</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E189" s="9">
+        <v>2</v>
+      </c>
+      <c r="F189" s="9">
+        <v>1</v>
+      </c>
+      <c r="G189" s="7">
+        <v>7</v>
+      </c>
+      <c r="H189" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="11">
+        <v>44434.908900462964</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E190" s="9">
+        <v>2</v>
+      </c>
+      <c r="F190" s="9">
+        <v>6</v>
+      </c>
+      <c r="G190" s="7">
+        <v>3</v>
+      </c>
+      <c r="H190" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" s="11">
+        <v>44434.908900462964</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E191" s="9">
+        <v>1</v>
+      </c>
+      <c r="F191" s="9">
+        <v>3</v>
+      </c>
+      <c r="G191" s="7">
+        <v>2</v>
+      </c>
+      <c r="H191" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="11">
+        <v>44434.908900462964</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192" s="9">
+        <v>9</v>
+      </c>
+      <c r="F192" s="9">
+        <v>1</v>
+      </c>
+      <c r="G192" s="7">
+        <v>3</v>
+      </c>
+      <c r="H192" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" s="11">
+        <v>44434.908900462964</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E193" s="9">
+        <v>1</v>
+      </c>
+      <c r="F193" s="9">
+        <v>3</v>
+      </c>
+      <c r="G193" s="7">
+        <v>2</v>
+      </c>
+      <c r="H193" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" s="11">
+        <v>44434.908900462964</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194" s="9">
+        <v>2</v>
+      </c>
+      <c r="F194" s="9">
+        <v>6</v>
+      </c>
+      <c r="G194" s="7">
+        <v>1</v>
+      </c>
+      <c r="H194" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" s="11">
+        <v>44434.908900462964</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E195" s="9">
+        <v>9</v>
+      </c>
+      <c r="F195" s="9">
+        <v>8</v>
+      </c>
+      <c r="G195" s="7">
+        <v>3</v>
+      </c>
+      <c r="H195" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" s="11">
+        <v>44434.908900462964</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E196" s="9">
+        <v>1</v>
+      </c>
+      <c r="F196" s="9">
+        <v>3</v>
+      </c>
+      <c r="G196" s="7">
+        <v>2</v>
+      </c>
+      <c r="H196" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="11">
+        <v>44434.909120370372</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197" s="9">
+        <v>4</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1</v>
+      </c>
+      <c r="G197" s="7">
+        <v>8</v>
+      </c>
+      <c r="H197" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="11">
+        <v>44434.909120370372</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E198" s="9">
+        <v>4</v>
+      </c>
+      <c r="F198" s="9">
+        <v>6</v>
+      </c>
+      <c r="G198" s="7">
+        <v>5</v>
+      </c>
+      <c r="H198" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" s="11">
+        <v>44434.909120370372</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E199" s="9">
+        <v>1</v>
+      </c>
+      <c r="F199" s="9">
+        <v>5</v>
+      </c>
+      <c r="G199" s="7">
+        <v>2</v>
+      </c>
+      <c r="H199" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" s="11">
+        <v>44434.909120370372</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E200" s="9">
+        <v>4</v>
+      </c>
+      <c r="F200" s="9">
+        <v>1</v>
+      </c>
+      <c r="G200" s="7">
+        <v>6</v>
+      </c>
+      <c r="H200" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" s="11">
+        <v>44434.909120370372</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E201" s="9">
+        <v>1</v>
+      </c>
+      <c r="F201" s="9">
+        <v>4</v>
+      </c>
+      <c r="G201" s="7">
+        <v>8</v>
+      </c>
+      <c r="H201" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" s="11">
+        <v>44434.909120370372</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E202" s="9">
+        <v>4</v>
+      </c>
+      <c r="F202" s="9">
+        <v>1</v>
+      </c>
+      <c r="G202" s="7">
+        <v>6</v>
+      </c>
+      <c r="H202" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" s="11">
+        <v>44434.909120370372</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E203" s="9">
+        <v>4</v>
+      </c>
+      <c r="F203" s="9">
+        <v>2</v>
+      </c>
+      <c r="G203" s="7">
+        <v>1</v>
+      </c>
+      <c r="H203" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" s="11">
+        <v>44434.909398148149</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E204" s="9">
+        <v>1</v>
+      </c>
+      <c r="F204" s="9">
+        <v>10</v>
+      </c>
+      <c r="G204" s="7">
+        <v>13</v>
+      </c>
+      <c r="H204" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" s="11">
+        <v>44434.909398148149</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" s="9">
+        <v>5</v>
+      </c>
+      <c r="F205" s="9">
+        <v>12</v>
+      </c>
+      <c r="G205" s="7">
+        <v>14</v>
+      </c>
+      <c r="H205" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" s="11">
+        <v>44434.909398148149</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E206" s="9">
+        <v>1</v>
+      </c>
+      <c r="F206" s="9">
+        <v>5</v>
+      </c>
+      <c r="G206" s="7">
+        <v>4</v>
+      </c>
+      <c r="H206" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" s="11">
+        <v>44434.909398148149</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E207" s="9">
+        <v>1</v>
+      </c>
+      <c r="F207" s="9">
+        <v>5</v>
+      </c>
+      <c r="G207" s="7">
+        <v>10</v>
+      </c>
+      <c r="H207" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" s="11">
+        <v>44434.909398148149</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E208" s="9">
+        <v>13</v>
+      </c>
+      <c r="F208" s="9">
+        <v>1</v>
+      </c>
+      <c r="G208" s="7">
+        <v>10</v>
+      </c>
+      <c r="H208" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" s="11">
+        <v>44434.909398148149</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E209" s="9">
+        <v>12</v>
+      </c>
+      <c r="F209" s="9">
+        <v>10</v>
+      </c>
+      <c r="G209" s="7">
+        <v>1</v>
+      </c>
+      <c r="H209" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" s="11">
+        <v>44434.909398148149</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="9">
+        <v>1</v>
+      </c>
+      <c r="F210" s="9">
+        <v>5</v>
+      </c>
+      <c r="G210" s="7">
+        <v>3</v>
+      </c>
+      <c r="H210" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" s="11">
+        <v>44434.90965277778</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E211" s="9">
+        <v>7</v>
+      </c>
+      <c r="F211" s="9">
+        <v>8</v>
+      </c>
+      <c r="G211" s="7">
+        <v>2</v>
+      </c>
+      <c r="H211" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" s="11">
+        <v>44434.90965277778</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E212" s="9">
+        <v>10</v>
+      </c>
+      <c r="F212" s="9">
+        <v>2</v>
+      </c>
+      <c r="G212" s="7">
+        <v>3</v>
+      </c>
+      <c r="H212" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" s="11">
+        <v>44434.90965277778</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E213" s="9">
+        <v>10</v>
+      </c>
+      <c r="F213" s="9">
+        <v>1</v>
+      </c>
+      <c r="G213" s="7">
+        <v>4</v>
+      </c>
+      <c r="H213" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" s="11">
+        <v>44434.90965277778</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E214" s="9">
+        <v>10</v>
+      </c>
+      <c r="F214" s="9">
+        <v>2</v>
+      </c>
+      <c r="G214" s="7">
+        <v>7</v>
+      </c>
+      <c r="H214" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="11">
+        <v>44434.90965277778</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="9">
+        <v>8</v>
+      </c>
+      <c r="F215" s="9">
+        <v>7</v>
+      </c>
+      <c r="G215" s="7">
+        <v>2</v>
+      </c>
+      <c r="H215" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" s="11">
+        <v>44434.90965277778</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E216" s="9">
+        <v>10</v>
+      </c>
+      <c r="F216" s="9">
+        <v>4</v>
+      </c>
+      <c r="G216" s="7">
+        <v>2</v>
+      </c>
+      <c r="H216" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" s="11">
+        <v>44434.90965277778</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E217" s="9">
+        <v>10</v>
+      </c>
+      <c r="F217" s="9">
+        <v>5</v>
+      </c>
+      <c r="G217" s="7">
+        <v>4</v>
+      </c>
+      <c r="H217" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" s="11">
+        <v>44434.909861111111</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E218" s="9">
+        <v>11</v>
+      </c>
+      <c r="F218" s="9">
+        <v>4</v>
+      </c>
+      <c r="G218" s="7">
+        <v>6</v>
+      </c>
+      <c r="H218" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" s="11">
+        <v>44434.909861111111</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E219" s="9">
+        <v>1</v>
+      </c>
+      <c r="F219" s="9">
+        <v>5</v>
+      </c>
+      <c r="G219" s="7">
+        <v>2</v>
+      </c>
+      <c r="H219" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" s="11">
+        <v>44434.909872685188</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E220" s="9">
+        <v>10</v>
+      </c>
+      <c r="F220" s="9">
+        <v>1</v>
+      </c>
+      <c r="G220" s="7">
+        <v>5</v>
+      </c>
+      <c r="H220" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" s="11">
+        <v>44434.909872685188</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E221" s="9">
+        <v>1</v>
+      </c>
+      <c r="F221" s="9">
+        <v>11</v>
+      </c>
+      <c r="G221" s="7">
+        <v>4</v>
+      </c>
+      <c r="H221" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" s="11">
+        <v>44434.909872685188</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E222" s="9">
+        <v>4</v>
+      </c>
+      <c r="F222" s="9">
+        <v>6</v>
+      </c>
+      <c r="G222" s="7">
+        <v>11</v>
+      </c>
+      <c r="H222" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" s="11">
+        <v>44434.909872685188</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E223" s="9">
+        <v>15</v>
+      </c>
+      <c r="F223" s="9">
+        <v>11</v>
+      </c>
+      <c r="G223" s="7">
+        <v>13</v>
+      </c>
+      <c r="H223" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" s="11">
+        <v>44434.909872685188</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E224" s="9">
+        <v>12</v>
+      </c>
+      <c r="F224" s="9">
+        <v>1</v>
+      </c>
+      <c r="G224" s="7">
+        <v>5</v>
+      </c>
+      <c r="H224" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" s="11">
+        <v>44434.910092592596</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E225" s="9">
+        <v>8</v>
+      </c>
+      <c r="F225" s="9">
+        <v>17</v>
+      </c>
+      <c r="G225" s="7">
+        <v>13</v>
+      </c>
+      <c r="H225" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" s="11">
+        <v>44434.910092592596</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E226" s="9">
+        <v>3</v>
+      </c>
+      <c r="F226" s="9">
+        <v>5</v>
+      </c>
+      <c r="G226" s="7">
+        <v>7</v>
+      </c>
+      <c r="H226" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="11">
+        <v>44434.910092592596</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E227" s="9">
+        <v>1</v>
+      </c>
+      <c r="F227" s="9">
+        <v>4</v>
+      </c>
+      <c r="G227" s="7">
+        <v>3</v>
+      </c>
+      <c r="H227" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" s="11">
+        <v>44434.910092592596</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E228" s="9">
+        <v>8</v>
+      </c>
+      <c r="F228" s="9">
+        <v>1</v>
+      </c>
+      <c r="G228" s="7">
+        <v>3</v>
+      </c>
+      <c r="H228" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" s="11">
+        <v>44434.910092592596</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E229" s="9">
+        <v>8</v>
+      </c>
+      <c r="F229" s="9">
+        <v>13</v>
+      </c>
+      <c r="G229" s="7">
+        <v>17</v>
+      </c>
+      <c r="H229" s="7">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Ethan/ScrapeBets.xlsx
+++ b/Ethan/ScrapeBets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Upwork\Ethan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F96C4B-71C4-4845-99E7-5641ACB793A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E49B95-6585-42CB-9352-310D2B509A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11835" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{02CFEA0B-B0B8-4AD6-AD17-22E8E4511D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bets" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="25">
   <si>
     <t>Tip Website</t>
   </si>
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12CD589-920F-400B-BFEF-F5FAFACF2E66}">
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
@@ -11429,6 +11429,1254 @@
         <v>6</v>
       </c>
     </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B422" s="10">
+        <v>44441.563784722224</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D422" s="8">
+        <v>1</v>
+      </c>
+      <c r="E422" s="8">
+        <v>4</v>
+      </c>
+      <c r="F422" s="8">
+        <v>2</v>
+      </c>
+      <c r="G422" s="6">
+        <v>3</v>
+      </c>
+      <c r="H422" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B423" s="10">
+        <v>44441.563784722224</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" s="8">
+        <v>1</v>
+      </c>
+      <c r="E423" s="8">
+        <v>3</v>
+      </c>
+      <c r="F423" s="8">
+        <v>4</v>
+      </c>
+      <c r="G423" s="6">
+        <v>8</v>
+      </c>
+      <c r="H423" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B424" s="10">
+        <v>44441.563784722224</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D424" s="8">
+        <v>1</v>
+      </c>
+      <c r="E424" s="8">
+        <v>4</v>
+      </c>
+      <c r="F424" s="8">
+        <v>3</v>
+      </c>
+      <c r="G424" s="6">
+        <v>8</v>
+      </c>
+      <c r="H424" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B425" s="10">
+        <v>44441.563784722224</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="8">
+        <v>1</v>
+      </c>
+      <c r="E425" s="8">
+        <v>4</v>
+      </c>
+      <c r="F425" s="8">
+        <v>3</v>
+      </c>
+      <c r="G425" s="6">
+        <v>8</v>
+      </c>
+      <c r="H425" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B426" s="10">
+        <v>44441.563784722224</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D426" s="8">
+        <v>1</v>
+      </c>
+      <c r="E426" s="8">
+        <v>4</v>
+      </c>
+      <c r="F426" s="8">
+        <v>2</v>
+      </c>
+      <c r="G426" s="6">
+        <v>3</v>
+      </c>
+      <c r="H426" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B427" s="10">
+        <v>44441.563784722224</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D427" s="8">
+        <v>1</v>
+      </c>
+      <c r="E427" s="8">
+        <v>8</v>
+      </c>
+      <c r="F427" s="8">
+        <v>3</v>
+      </c>
+      <c r="G427" s="6">
+        <v>4</v>
+      </c>
+      <c r="H427" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B428" s="10">
+        <v>44441.563784722224</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D428" s="8">
+        <v>1</v>
+      </c>
+      <c r="E428" s="8">
+        <v>9</v>
+      </c>
+      <c r="F428" s="8">
+        <v>8</v>
+      </c>
+      <c r="G428" s="6">
+        <v>3</v>
+      </c>
+      <c r="H428" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B429" s="10">
+        <v>44441.564016203702</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D429" s="8">
+        <v>2</v>
+      </c>
+      <c r="E429" s="8">
+        <v>1</v>
+      </c>
+      <c r="F429" s="8">
+        <v>4</v>
+      </c>
+      <c r="G429" s="6">
+        <v>11</v>
+      </c>
+      <c r="H429" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B430" s="10">
+        <v>44441.564027777778</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430" s="8">
+        <v>2</v>
+      </c>
+      <c r="E430" s="8">
+        <v>3</v>
+      </c>
+      <c r="F430" s="8">
+        <v>1</v>
+      </c>
+      <c r="G430" s="6">
+        <v>4</v>
+      </c>
+      <c r="H430" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B431" s="10">
+        <v>44441.564027777778</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D431" s="8">
+        <v>2</v>
+      </c>
+      <c r="E431" s="8">
+        <v>3</v>
+      </c>
+      <c r="F431" s="8">
+        <v>1</v>
+      </c>
+      <c r="G431" s="6">
+        <v>2</v>
+      </c>
+      <c r="H431" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B432" s="10">
+        <v>44441.564027777778</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432" s="8">
+        <v>2</v>
+      </c>
+      <c r="E432" s="8">
+        <v>1</v>
+      </c>
+      <c r="F432" s="8">
+        <v>3</v>
+      </c>
+      <c r="G432" s="6">
+        <v>4</v>
+      </c>
+      <c r="H432" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B433" s="10">
+        <v>44441.564027777778</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D433" s="8">
+        <v>2</v>
+      </c>
+      <c r="E433" s="8">
+        <v>1</v>
+      </c>
+      <c r="F433" s="8">
+        <v>4</v>
+      </c>
+      <c r="G433" s="6">
+        <v>11</v>
+      </c>
+      <c r="H433" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B434" s="10">
+        <v>44441.564027777778</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D434" s="8">
+        <v>2</v>
+      </c>
+      <c r="E434" s="8">
+        <v>11</v>
+      </c>
+      <c r="F434" s="8">
+        <v>1</v>
+      </c>
+      <c r="G434" s="6">
+        <v>3</v>
+      </c>
+      <c r="H434" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B435" s="10">
+        <v>44441.564027777778</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D435" s="8">
+        <v>2</v>
+      </c>
+      <c r="E435" s="8">
+        <v>3</v>
+      </c>
+      <c r="F435" s="8">
+        <v>4</v>
+      </c>
+      <c r="G435" s="6">
+        <v>1</v>
+      </c>
+      <c r="H435" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B436" s="10">
+        <v>44441.564259259256</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D436" s="8">
+        <v>3</v>
+      </c>
+      <c r="E436" s="8">
+        <v>1</v>
+      </c>
+      <c r="F436" s="8">
+        <v>9</v>
+      </c>
+      <c r="G436" s="6">
+        <v>2</v>
+      </c>
+      <c r="H436" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B437" s="10">
+        <v>44441.564259259256</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" s="8">
+        <v>3</v>
+      </c>
+      <c r="E437" s="8">
+        <v>2</v>
+      </c>
+      <c r="F437" s="8">
+        <v>1</v>
+      </c>
+      <c r="G437" s="6">
+        <v>9</v>
+      </c>
+      <c r="H437" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B438" s="10">
+        <v>44441.564270833333</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" s="8">
+        <v>3</v>
+      </c>
+      <c r="E438" s="8">
+        <v>2</v>
+      </c>
+      <c r="F438" s="8">
+        <v>7</v>
+      </c>
+      <c r="G438" s="6">
+        <v>5</v>
+      </c>
+      <c r="H438" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" s="10">
+        <v>44441.564270833333</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D439" s="8">
+        <v>3</v>
+      </c>
+      <c r="E439" s="8">
+        <v>2</v>
+      </c>
+      <c r="F439" s="8">
+        <v>1</v>
+      </c>
+      <c r="G439" s="6">
+        <v>9</v>
+      </c>
+      <c r="H439" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B440" s="10">
+        <v>44441.564270833333</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D440" s="8">
+        <v>3</v>
+      </c>
+      <c r="E440" s="8">
+        <v>1</v>
+      </c>
+      <c r="F440" s="8">
+        <v>2</v>
+      </c>
+      <c r="G440" s="6">
+        <v>9</v>
+      </c>
+      <c r="H440" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B441" s="10">
+        <v>44441.564270833333</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441" s="8">
+        <v>3</v>
+      </c>
+      <c r="E441" s="8">
+        <v>2</v>
+      </c>
+      <c r="F441" s="8">
+        <v>1</v>
+      </c>
+      <c r="G441" s="6">
+        <v>4</v>
+      </c>
+      <c r="H441" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B442" s="10">
+        <v>44441.564270833333</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D442" s="8">
+        <v>3</v>
+      </c>
+      <c r="E442" s="8">
+        <v>2</v>
+      </c>
+      <c r="F442" s="8">
+        <v>6</v>
+      </c>
+      <c r="G442" s="6">
+        <v>1</v>
+      </c>
+      <c r="H442" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B443" s="10">
+        <v>44441.579363425924</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D443" s="8">
+        <v>1</v>
+      </c>
+      <c r="E443" s="8">
+        <v>4</v>
+      </c>
+      <c r="F443" s="8">
+        <v>2</v>
+      </c>
+      <c r="G443" s="6">
+        <v>3</v>
+      </c>
+      <c r="H443" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B444" s="10">
+        <v>44441.579363425924</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D444" s="8">
+        <v>1</v>
+      </c>
+      <c r="E444" s="8">
+        <v>3</v>
+      </c>
+      <c r="F444" s="8">
+        <v>4</v>
+      </c>
+      <c r="G444" s="6">
+        <v>8</v>
+      </c>
+      <c r="H444" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B445" s="10">
+        <v>44441.579375000001</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D445" s="8">
+        <v>1</v>
+      </c>
+      <c r="E445" s="8">
+        <v>4</v>
+      </c>
+      <c r="F445" s="8">
+        <v>3</v>
+      </c>
+      <c r="G445" s="6">
+        <v>8</v>
+      </c>
+      <c r="H445" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446" s="10">
+        <v>44441.579375000001</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D446" s="8">
+        <v>1</v>
+      </c>
+      <c r="E446" s="8">
+        <v>4</v>
+      </c>
+      <c r="F446" s="8">
+        <v>3</v>
+      </c>
+      <c r="G446" s="6">
+        <v>8</v>
+      </c>
+      <c r="H446" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B447" s="10">
+        <v>44441.579375000001</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D447" s="8">
+        <v>1</v>
+      </c>
+      <c r="E447" s="8">
+        <v>4</v>
+      </c>
+      <c r="F447" s="8">
+        <v>2</v>
+      </c>
+      <c r="G447" s="6">
+        <v>3</v>
+      </c>
+      <c r="H447" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B448" s="10">
+        <v>44441.579375000001</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D448" s="8">
+        <v>1</v>
+      </c>
+      <c r="E448" s="8">
+        <v>8</v>
+      </c>
+      <c r="F448" s="8">
+        <v>3</v>
+      </c>
+      <c r="G448" s="6">
+        <v>4</v>
+      </c>
+      <c r="H448" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B449" s="10">
+        <v>44441.579375000001</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D449" s="8">
+        <v>1</v>
+      </c>
+      <c r="E449" s="8">
+        <v>9</v>
+      </c>
+      <c r="F449" s="8">
+        <v>8</v>
+      </c>
+      <c r="G449" s="6">
+        <v>3</v>
+      </c>
+      <c r="H449" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B450" s="10">
+        <v>44441.579606481479</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D450" s="8">
+        <v>2</v>
+      </c>
+      <c r="E450" s="8">
+        <v>1</v>
+      </c>
+      <c r="F450" s="8">
+        <v>4</v>
+      </c>
+      <c r="G450" s="6">
+        <v>11</v>
+      </c>
+      <c r="H450" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B451" s="10">
+        <v>44441.579606481479</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451" s="8">
+        <v>2</v>
+      </c>
+      <c r="E451" s="8">
+        <v>3</v>
+      </c>
+      <c r="F451" s="8">
+        <v>1</v>
+      </c>
+      <c r="G451" s="6">
+        <v>4</v>
+      </c>
+      <c r="H451" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B452" s="10">
+        <v>44441.579618055555</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452" s="8">
+        <v>2</v>
+      </c>
+      <c r="E452" s="8">
+        <v>3</v>
+      </c>
+      <c r="F452" s="8">
+        <v>1</v>
+      </c>
+      <c r="G452" s="6">
+        <v>2</v>
+      </c>
+      <c r="H452" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B453" s="10">
+        <v>44441.579618055555</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D453" s="8">
+        <v>2</v>
+      </c>
+      <c r="E453" s="8">
+        <v>1</v>
+      </c>
+      <c r="F453" s="8">
+        <v>3</v>
+      </c>
+      <c r="G453" s="6">
+        <v>4</v>
+      </c>
+      <c r="H453" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B454" s="10">
+        <v>44441.579618055555</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D454" s="8">
+        <v>2</v>
+      </c>
+      <c r="E454" s="8">
+        <v>1</v>
+      </c>
+      <c r="F454" s="8">
+        <v>4</v>
+      </c>
+      <c r="G454" s="6">
+        <v>11</v>
+      </c>
+      <c r="H454" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B455" s="10">
+        <v>44441.579618055555</v>
+      </c>
+      <c r="C455" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D455" s="8">
+        <v>2</v>
+      </c>
+      <c r="E455" s="8">
+        <v>11</v>
+      </c>
+      <c r="F455" s="8">
+        <v>1</v>
+      </c>
+      <c r="G455" s="6">
+        <v>3</v>
+      </c>
+      <c r="H455" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B456" s="10">
+        <v>44441.579618055555</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" s="8">
+        <v>2</v>
+      </c>
+      <c r="E456" s="8">
+        <v>3</v>
+      </c>
+      <c r="F456" s="8">
+        <v>4</v>
+      </c>
+      <c r="G456" s="6">
+        <v>1</v>
+      </c>
+      <c r="H456" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A457" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B457" s="10">
+        <v>44441.579861111109</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D457" s="8">
+        <v>3</v>
+      </c>
+      <c r="E457" s="8">
+        <v>1</v>
+      </c>
+      <c r="F457" s="8">
+        <v>9</v>
+      </c>
+      <c r="G457" s="6">
+        <v>2</v>
+      </c>
+      <c r="H457" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A458" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B458" s="10">
+        <v>44441.579861111109</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D458" s="8">
+        <v>3</v>
+      </c>
+      <c r="E458" s="8">
+        <v>2</v>
+      </c>
+      <c r="F458" s="8">
+        <v>1</v>
+      </c>
+      <c r="G458" s="6">
+        <v>9</v>
+      </c>
+      <c r="H458" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A459" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B459" s="10">
+        <v>44441.579861111109</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D459" s="8">
+        <v>3</v>
+      </c>
+      <c r="E459" s="8">
+        <v>2</v>
+      </c>
+      <c r="F459" s="8">
+        <v>7</v>
+      </c>
+      <c r="G459" s="6">
+        <v>5</v>
+      </c>
+      <c r="H459" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B460" s="10">
+        <v>44441.611585648148</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D460" s="8">
+        <v>1</v>
+      </c>
+      <c r="E460" s="8">
+        <v>4</v>
+      </c>
+      <c r="F460" s="8">
+        <v>2</v>
+      </c>
+      <c r="G460" s="6">
+        <v>3</v>
+      </c>
+      <c r="H460" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A461" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B461" s="10">
+        <v>44441.611597222225</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D461" s="8">
+        <v>1</v>
+      </c>
+      <c r="E461" s="8">
+        <v>3</v>
+      </c>
+      <c r="F461" s="8">
+        <v>4</v>
+      </c>
+      <c r="G461" s="6">
+        <v>8</v>
+      </c>
+      <c r="H461" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B462" s="10">
+        <v>44441.611597222225</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D462" s="8">
+        <v>1</v>
+      </c>
+      <c r="E462" s="8">
+        <v>4</v>
+      </c>
+      <c r="F462" s="8">
+        <v>3</v>
+      </c>
+      <c r="G462" s="6">
+        <v>8</v>
+      </c>
+      <c r="H462" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463" s="10">
+        <v>44441.611597222225</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" s="8">
+        <v>1</v>
+      </c>
+      <c r="E463" s="8">
+        <v>4</v>
+      </c>
+      <c r="F463" s="8">
+        <v>3</v>
+      </c>
+      <c r="G463" s="6">
+        <v>8</v>
+      </c>
+      <c r="H463" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A464" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B464" s="10">
+        <v>44441.611597222225</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464" s="8">
+        <v>1</v>
+      </c>
+      <c r="E464" s="8">
+        <v>4</v>
+      </c>
+      <c r="F464" s="8">
+        <v>2</v>
+      </c>
+      <c r="G464" s="6">
+        <v>3</v>
+      </c>
+      <c r="H464" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B465" s="10">
+        <v>44441.611597222225</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D465" s="8">
+        <v>1</v>
+      </c>
+      <c r="E465" s="8">
+        <v>8</v>
+      </c>
+      <c r="F465" s="8">
+        <v>3</v>
+      </c>
+      <c r="G465" s="6">
+        <v>4</v>
+      </c>
+      <c r="H465" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B466" s="10">
+        <v>44441.611597222225</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D466" s="8">
+        <v>1</v>
+      </c>
+      <c r="E466" s="8">
+        <v>9</v>
+      </c>
+      <c r="F466" s="8">
+        <v>8</v>
+      </c>
+      <c r="G466" s="6">
+        <v>3</v>
+      </c>
+      <c r="H466" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B467" s="10">
+        <v>44441.61178240741</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D467" s="8">
+        <v>2</v>
+      </c>
+      <c r="E467" s="8">
+        <v>1</v>
+      </c>
+      <c r="F467" s="8">
+        <v>4</v>
+      </c>
+      <c r="G467" s="6">
+        <v>11</v>
+      </c>
+      <c r="H467" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B468" s="10">
+        <v>44441.61178240741</v>
+      </c>
+      <c r="C468" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468" s="8">
+        <v>2</v>
+      </c>
+      <c r="E468" s="8">
+        <v>3</v>
+      </c>
+      <c r="F468" s="8">
+        <v>1</v>
+      </c>
+      <c r="G468" s="6">
+        <v>4</v>
+      </c>
+      <c r="H468" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B469" s="10">
+        <v>44441.61178240741</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D469" s="8">
+        <v>2</v>
+      </c>
+      <c r="E469" s="8">
+        <v>3</v>
+      </c>
+      <c r="F469" s="8">
+        <v>1</v>
+      </c>
+      <c r="G469" s="6">
+        <v>2</v>
+      </c>
+      <c r="H469" s="6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
